--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>678698.9330976977</v>
+        <v>676116.9668453075</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>55.91069488267914</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>68.05354878858691</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>268.1863666033676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>75.89935537974947</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>122.3235039234041</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>132.4069611855036</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>328.1400107624989</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>261.1216339158203</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>33.9255680222206</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1108,19 +1108,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>110.550131002432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>313.4391598272217</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.95795696802282</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>196.7369311034133</v>
+        <v>204.2543278597767</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754676</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1424,7 +1424,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>200.6173698503566</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.8201377841624</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.73433514019852</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.05806357631725</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046962</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>8.579726596858459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>59.96838802184498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1718.484040866812</v>
+        <v>835.5035202464255</v>
       </c>
       <c r="C2" t="n">
-        <v>1718.484040866812</v>
+        <v>466.5410033060138</v>
       </c>
       <c r="D2" t="n">
-        <v>1360.218342260061</v>
+        <v>108.2753046992633</v>
       </c>
       <c r="E2" t="n">
-        <v>974.430089661817</v>
+        <v>108.2753046992633</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722093</v>
+        <v>108.2753046992633</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>546.4584201956227</v>
+        <v>726.2913740299846</v>
       </c>
       <c r="M2" t="n">
-        <v>842.5289867532257</v>
+        <v>1022.361940587585</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.55219637312</v>
+        <v>1327.837046823169</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689754</v>
+        <v>1968.860256443063</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2487.745304821932</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2379.518692644005</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2379.518692644005</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2108.623372842623</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>2108.623372842623</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1718.484040866812</v>
+        <v>1222.103360310547</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>460.3590590626809</v>
       </c>
       <c r="L3" t="n">
-        <v>441.6105878503662</v>
+        <v>1037.081874165935</v>
       </c>
       <c r="M3" t="n">
-        <v>1082.63379747026</v>
+        <v>1301.021405661421</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.657007090154</v>
+        <v>1905.604188315629</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925575</v>
+        <v>2144.409140067087</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>764.3783885057688</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>764.3783885057688</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>614.2617490934331</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>466.34865551104</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>319.4587080131296</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521424</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="T4" t="n">
-        <v>985.170967649299</v>
+        <v>884.3189032968571</v>
       </c>
       <c r="U4" t="n">
-        <v>985.170967649299</v>
+        <v>595.1822762889592</v>
       </c>
       <c r="V4" t="n">
-        <v>985.170967649299</v>
+        <v>461.4378710510767</v>
       </c>
       <c r="W4" t="n">
-        <v>985.170967649299</v>
+        <v>461.4378710510767</v>
       </c>
       <c r="X4" t="n">
-        <v>985.170967649299</v>
+        <v>233.4483201530594</v>
       </c>
       <c r="Y4" t="n">
-        <v>764.3783885057688</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1129.422051487367</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="C5" t="n">
-        <v>1129.422051487367</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="D5" t="n">
-        <v>771.1563528806169</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="E5" t="n">
-        <v>439.7017965548604</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>432.7562958056569</v>
+        <v>532.9721672718591</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719911</v>
@@ -4568,19 +4568,19 @@
         <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4598,19 +4598,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>1983.644882813119</v>
       </c>
       <c r="X5" t="n">
-        <v>1906.161223527301</v>
+        <v>1719.885656635523</v>
       </c>
       <c r="Y5" t="n">
-        <v>1516.021891551489</v>
+        <v>1329.746324659711</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>688.5974568552865</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>985.9094059716012</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.215295463927</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N6" t="n">
-        <v>1742.624856789669</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2077.5535375052</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2327.030265370219</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>832.1628036362589</v>
+        <v>234.7156414174334</v>
       </c>
       <c r="C7" t="n">
-        <v>663.226620708352</v>
+        <v>234.7156414174334</v>
       </c>
       <c r="D7" t="n">
-        <v>663.226620708352</v>
+        <v>234.7156414174334</v>
       </c>
       <c r="E7" t="n">
-        <v>515.3135271259589</v>
+        <v>234.7156414174334</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280485</v>
+        <v>234.7156414174334</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>234.7156414174334</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>86.06810585031528</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121973</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.811268466499</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.811268466499</v>
+        <v>972.9149414959414</v>
       </c>
       <c r="W7" t="n">
-        <v>1013.811268466499</v>
+        <v>683.4977714589809</v>
       </c>
       <c r="X7" t="n">
-        <v>1013.811268466499</v>
+        <v>455.5082205609635</v>
       </c>
       <c r="Y7" t="n">
-        <v>1013.811268466499</v>
+        <v>234.7156414174334</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.733300519046</v>
+        <v>683.871037603174</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.733300519046</v>
+        <v>683.871037603174</v>
       </c>
       <c r="D8" t="n">
-        <v>878.4676019122953</v>
+        <v>683.871037603174</v>
       </c>
       <c r="E8" t="n">
-        <v>878.4676019122953</v>
+        <v>683.871037603174</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226877</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4817,37 +4817,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2561.752405567224</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.107046026052</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.107046026052</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.107046026052</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.338390755937</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.872632494857</v>
+        <v>1070.470877667296</v>
       </c>
       <c r="Y8" t="n">
-        <v>1236.733300519046</v>
+        <v>1070.470877667296</v>
       </c>
     </row>
     <row r="9">
@@ -4866,34 +4866,34 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096208</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>556.1660239074731</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L9" t="n">
-        <v>853.4779730237876</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M9" t="n">
-        <v>1219.783862516113</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
         <v>2195.735752851538</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.3757090377518</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C10" t="n">
-        <v>455.3757090377518</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D10" t="n">
-        <v>305.259069625416</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153877</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1448.259497322147</v>
+        <v>1244.216501271184</v>
       </c>
       <c r="U10" t="n">
-        <v>1448.259497322147</v>
+        <v>955.098724281582</v>
       </c>
       <c r="V10" t="n">
-        <v>1193.57500911626</v>
+        <v>700.4142360756952</v>
       </c>
       <c r="W10" t="n">
-        <v>904.1578390792993</v>
+        <v>700.4142360756952</v>
       </c>
       <c r="X10" t="n">
-        <v>676.1682881812819</v>
+        <v>700.4142360756952</v>
       </c>
       <c r="Y10" t="n">
-        <v>455.3757090377518</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
@@ -5072,19 +5072,19 @@
         <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.700680385037</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1683.796643784373</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.3786971237845</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>632.4425141958776</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>632.4425141958776</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>484.5294206134845</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134845</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608056</v>
@@ -5227,22 +5227,22 @@
         <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2177.346239107599</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.270025422326</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1633.585537216439</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1344.168367179478</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.178816281461</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.0271619540242</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093767</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>198.0274703142544</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>198.0274703142544</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2371.250989330786</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2151.649524353727</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1862.574297697925</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1607.889809492038</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1318.472639455077</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1090.48308855706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.6905094135296</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6315,16 +6315,16 @@
         <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.35444800546657</v>
+        <v>33.90728115093469</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083451</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>33.81943452253068</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660668</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>322.4736487079565</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>299.8549597144483</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>119.3759750973102</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>130.6961128228685</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>245.4670104377189</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870217</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>183.0509042136423</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>310.3385832763041</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.29152613728974</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.76451556793242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823273</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.8503182118963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.77391660562004</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393165</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>37.12601365260413</v>
+        <v>140.2947128462252</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>172.4465594047861</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>972338.7267131212</v>
+        <v>972338.7267131215</v>
       </c>
     </row>
     <row r="3">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503242</v>
+        <v>375475.6212503243</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190154</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="I2" t="n">
         <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="M2" t="n">
         <v>403573.299845003</v>
@@ -26350,7 +26350,7 @@
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898954</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>489156.4647573815</v>
+        <v>489156.4647573809</v>
       </c>
       <c r="F3" t="n">
         <v>11452.26311504109</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119780.4734867864</v>
+        <v>119780.4734867869</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6280.9479104697</v>
@@ -26433,31 +26433,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695044</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
+        <v>6287.480531695031</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695042</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695059</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-773332.8630088518</v>
+        <v>-773508.0893272582</v>
       </c>
       <c r="C6" t="n">
-        <v>15208.6810554917</v>
+        <v>15208.68105548879</v>
       </c>
       <c r="D6" t="n">
-        <v>187973.0408453846</v>
+        <v>187973.0408453843</v>
       </c>
       <c r="E6" t="n">
-        <v>-194239.6553626743</v>
+        <v>-194285.5603582393</v>
       </c>
       <c r="F6" t="n">
-        <v>284711.0263743598</v>
+        <v>284676.288448924</v>
       </c>
       <c r="G6" t="n">
-        <v>296163.2894894009</v>
+        <v>296128.5515639652</v>
       </c>
       <c r="H6" t="n">
-        <v>296163.2894894007</v>
+        <v>296128.551563965</v>
       </c>
       <c r="I6" t="n">
-        <v>296163.2894894008</v>
+        <v>296128.5515639651</v>
       </c>
       <c r="J6" t="n">
-        <v>126749.2726633529</v>
+        <v>126714.5347379171</v>
       </c>
       <c r="K6" t="n">
-        <v>296163.2894894012</v>
+        <v>296128.5515639653</v>
       </c>
       <c r="L6" t="n">
-        <v>296163.289489401</v>
+        <v>296128.5515639651</v>
       </c>
       <c r="M6" t="n">
-        <v>168409.5818823481</v>
+        <v>168374.8439569123</v>
       </c>
       <c r="N6" t="n">
-        <v>293086.2721336962</v>
+        <v>293051.5342082605</v>
       </c>
       <c r="O6" t="n">
-        <v>296163.2894894008</v>
+        <v>296128.551563965</v>
       </c>
       <c r="P6" t="n">
-        <v>296163.2894894009</v>
+        <v>296128.5515639654</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.7254341522371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>418.3346580665416</v>
+        <v>418.334658066541</v>
       </c>
       <c r="F3" t="n">
         <v>9.93445162528792</v>
@@ -26975,14 +26975,14 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>512.6470987907608</v>
+        <v>512.6470987907604</v>
       </c>
       <c r="F4" t="n">
         <v>12.56299777364143</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>512.6470987907608</v>
+        <v>512.6470987907604</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364143</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>512.6470987907608</v>
+        <v>512.6470987907604</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364143</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>356.377043812365</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>81.05460211404539</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.84354370891222</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>119.7306821383244</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>53.79035930976289</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>108.6094667626488</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>70.5650914907805</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>175.6764682172736</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>93.43688591448978</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>94.97745180643022</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>23.96829761002516</v>
+        <v>16.45090085366178</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
@@ -31297,16 +31297,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583803</v>
@@ -31379,7 +31379,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31394,7 +31394,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315819</v>
@@ -31440,7 +31440,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>363.6408844187312</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>750.6021172789107</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948329</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>253.6713445157994</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,16 +33497,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>261.3774593369737</v>
+        <v>273.9302924824399</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5273873031681</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>610.6896794486953</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
         <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>600.170059831938</v>
       </c>
       <c r="M6" t="n">
         <v>370.005948982147</v>
@@ -35030,10 +35030,10 @@
         <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.4056613270724</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35106,7 +35106,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321223</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>319.2430718160125</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>615.4729594198659</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352462</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297621</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>221.0446399742867</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>619.2604051955774</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281453</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>122.3296324324661</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,16 +37145,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
